--- a/translate/Mitochondrion.xlsx
+++ b/translate/Mitochondrion.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,334 +496,370 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cladosporium</t>
+          <t>Nannochloropsis</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>枝孢属</t>
+          <t>微拟球藻属</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Zostera</t>
+          <t>Microbotryum</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>大叶藻属</t>
+          <t>小孢子菌属</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Shiraia</t>
+          <t>Micractinium</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>竹黄属</t>
+          <t>微芒藻属</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Parastagonospora</t>
+          <t>Ascochyta</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>副针孢属</t>
+          <t>壳二孢属</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pleurostomum</t>
+          <t>Misgurnus</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>侧口属</t>
+          <t>泥鳅属</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tetradesmus</t>
+          <t>Pleurostomum</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>四链藻属</t>
+          <t>侧口属</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Allium</t>
+          <t>Cladosporium</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>葱属</t>
+          <t>枝孢属</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Daphnia</t>
+          <t>Zostera</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>水蚤属</t>
+          <t>大叶藻属</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cafeteria</t>
+          <t>Shiraia</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>卡弗泰虫属</t>
+          <t>竹黄属</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Agrostemma</t>
+          <t>Parastagonospora</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>麦仙翁属</t>
+          <t>副针孢属</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synura</t>
+          <t>Tetradesmus</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>合尾滴虫属</t>
+          <t>四链藻属</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Scytothamnus</t>
+          <t>Allium</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>褐茸藻属</t>
+          <t>葱属</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nannochloropsis</t>
+          <t>Daphnia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>微拟球藻属</t>
+          <t>水蚤属</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Trapa</t>
+          <t>Cafeteria</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>菱属</t>
+          <t>卡弗泰虫属</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ulota</t>
+          <t>Agrostemma</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>木灵藓属</t>
+          <t>麦仙翁属</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Micractinium</t>
+          <t>Synura</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>微芒藻属</t>
+          <t>合尾滴虫属</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Zizania</t>
+          <t>Scytothamnus</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>菰属</t>
+          <t>褐茸藻属</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ardea</t>
+          <t>Trapa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>鹭属</t>
+          <t>菱属</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Exserohilum</t>
+          <t>Ulota</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>突脐蠕孢属</t>
+          <t>木灵藓属</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Botryococcus</t>
+          <t>Zizania</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>葡萄藻属</t>
+          <t>菰属</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Curvularia</t>
+          <t>Ardea</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>弯孢霉属</t>
+          <t>鹭属</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Homo</t>
+          <t>Exserohilum</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>人属</t>
+          <t>突脐蠕孢属</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Oryctolagus</t>
+          <t>Botryococcus</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>穴兔属</t>
+          <t>葡萄藻属</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Zea</t>
+          <t>Curvularia</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>玉蜀黍属</t>
+          <t>弯孢霉属</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aechmea</t>
+          <t>Homo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>光萼荷属</t>
+          <t>人属</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lecanicillium</t>
+          <t>Oryctolagus</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>蜡蚧轮枝菌属</t>
+          <t>穴兔属</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Carex</t>
+          <t>Zea</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>薹草属</t>
+          <t>玉蜀黍属</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Aechmea</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>光萼荷属</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Lecanicillium</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>蜡蚧轮枝菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Carex</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>薹草属</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Polypodium</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>多足蕨属</t>
         </is>
